--- a/ArticleManage/main_working_folder/output_folders/Data 140 The Analysis of Pore/Data140_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 140 The Analysis of Pore/Data140_all_graphs_excel.xlsx
@@ -5,16 +5,16 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 C400-90  0-1-0-250 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 C500-90  0-1-0-250 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 C600-90  0-1-0-250 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 3 AC1000-120  0-1-0-250 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 3 AC1000-90  0-1-0-250 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 3 AC850-120  0-1-0-250 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 3 AC850-90  0-1-0-250 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 3 AC900-120  0-1-0-250 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 3 AC950-120  0-1-0-250 " sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 3 AC950-90  0-1-0-250 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 2 C400-90  0&amp;1&amp;0&amp;250 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 C500-90  0&amp;1&amp;0&amp;250 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 C600-90  0&amp;1&amp;0&amp;250 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3 AC1000-120  0&amp;1&amp;0&amp;250 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 3 AC1000-90  0&amp;1&amp;0&amp;250 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 3 AC850-120  0&amp;1&amp;0&amp;250 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 3 AC850-90  0&amp;1&amp;0&amp;250 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 3 AC900-120  0&amp;1&amp;0&amp;250 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 3 AC950-120  0&amp;1&amp;0&amp;250 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 3 AC950-90  0&amp;1&amp;0&amp;250 " sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -192,12 +192,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 C400-90  0-1-0-250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 C400-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 C400-90  0-1-0-250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 C400-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -506,12 +506,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC950-90  0-1-0-250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 AC950-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC950-90  0-1-0-250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 AC950-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -820,12 +820,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 C500-90  0-1-0-250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 C500-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 C500-90  0-1-0-250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 C500-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1134,12 +1134,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 C600-90  0-1-0-250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 C600-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 C600-90  0-1-0-250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 C600-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1448,12 +1448,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC1000-120  0-1-0-250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 AC1000-120  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC1000-120  0-1-0-250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 AC1000-120  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1762,12 +1762,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC1000-90  0-1-0-250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 AC1000-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC1000-90  0-1-0-250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 AC1000-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2076,12 +2076,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC850-120  0-1-0-250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 AC850-120  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC850-120  0-1-0-250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 AC850-120  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2390,12 +2390,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC850-90  0-1-0-250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 AC850-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC850-90  0-1-0-250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 AC850-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2704,12 +2704,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC900-120  0-1-0-250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 AC900-120  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC900-120  0-1-0-250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 AC900-120  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3018,12 +3018,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC950-120  0-1-0-250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 AC950-120  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC950-120  0-1-0-250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 AC950-120  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>

--- a/ArticleManage/main_working_folder/output_folders/Data 140 The Analysis of Pore/Data140_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 140 The Analysis of Pore/Data140_all_graphs_excel.xlsx
@@ -9497,7 +9497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9518,269 +9518,285 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9795</v>
+        <v>0.0018</v>
       </c>
       <c r="B3" s="0">
-        <v>230.597</v>
+        <v>175.2407</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9255</v>
+        <v>0.0032</v>
       </c>
       <c r="B4" s="0">
-        <v>227.2388</v>
+        <v>181.3476</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9028</v>
+        <v>0.0066</v>
       </c>
       <c r="B5" s="0">
-        <v>228.5448</v>
+        <v>186.1594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8828</v>
+        <v>0.0108</v>
       </c>
       <c r="B6" s="0">
-        <v>225.9328</v>
+        <v>191.3416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8515</v>
+        <v>0.0212</v>
       </c>
       <c r="B7" s="0">
-        <v>220.5224</v>
+        <v>200.5959</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8023</v>
+        <v>0.0311</v>
       </c>
       <c r="B8" s="0">
-        <v>218.8433</v>
+        <v>205.7791</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7525</v>
+        <v>0.0419</v>
       </c>
       <c r="B9" s="0">
-        <v>217.5373</v>
+        <v>208.9269</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.7018</v>
+        <v>0.0523</v>
       </c>
       <c r="B10" s="0">
-        <v>216.0448</v>
+        <v>211.5195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6539</v>
+        <v>0.0636</v>
       </c>
       <c r="B11" s="0">
-        <v>214.7388</v>
+        <v>213.7422</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6032</v>
+        <v>0.0725</v>
       </c>
       <c r="B12" s="0">
-        <v>213.2463</v>
+        <v>215.5943</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.552</v>
+        <v>0.0814</v>
       </c>
       <c r="B13" s="0">
-        <v>212.1269</v>
+        <v>217.2614</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5013</v>
+        <v>0.0922</v>
       </c>
       <c r="B14" s="0">
-        <v>210.4478</v>
+        <v>218.1886</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4515</v>
+        <v>0.104</v>
       </c>
       <c r="B15" s="0">
-        <v>209.1418</v>
+        <v>219.116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3994</v>
+        <v>0.1519</v>
       </c>
       <c r="B16" s="0">
-        <v>208.3955</v>
+        <v>222.8259</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3562</v>
+        <v>0.204</v>
       </c>
       <c r="B17" s="0">
-        <v>207.2761</v>
+        <v>225.9813</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3401</v>
+        <v>0.212</v>
       </c>
       <c r="B18" s="0">
-        <v>206.903</v>
+        <v>226.1679</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3117</v>
+        <v>0.2519</v>
       </c>
       <c r="B19" s="0">
-        <v>205.9701</v>
+        <v>227.8407</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2581</v>
+        <v>0.2665</v>
       </c>
       <c r="B20" s="0">
-        <v>204.291</v>
+        <v>228.3985</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2031</v>
+        <v>0.3055</v>
       </c>
       <c r="B21" s="0">
-        <v>202.9851</v>
+        <v>230.0712</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1472</v>
+        <v>0.3168</v>
       </c>
       <c r="B22" s="0">
-        <v>200.5597</v>
+        <v>230.4433</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1007</v>
+        <v>0.343</v>
       </c>
       <c r="B23" s="0">
-        <v>197.5746</v>
+        <v>231.1884</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0898</v>
+        <v>0.3553</v>
       </c>
       <c r="B24" s="0">
-        <v>196.6418</v>
+        <v>231.3757</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0794</v>
+        <v>0.3989</v>
       </c>
       <c r="B25" s="0">
-        <v>195.8955</v>
+        <v>232.8642</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.068</v>
+        <v>0.4539</v>
       </c>
       <c r="B26" s="0">
-        <v>194.7761</v>
+        <v>236.0202</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0604</v>
+        <v>0.5022</v>
       </c>
       <c r="B27" s="0">
-        <v>193.6567</v>
+        <v>236.0291</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.051</v>
+        <v>0.5534</v>
       </c>
       <c r="B28" s="0">
-        <v>192.5373</v>
+        <v>237.3339</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0401</v>
+        <v>0.6032</v>
       </c>
       <c r="B29" s="0">
-        <v>190.4851</v>
+        <v>239.0086</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0282</v>
+        <v>0.6535</v>
       </c>
       <c r="B30" s="0">
-        <v>187.3134</v>
+        <v>241.2384</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0197</v>
+        <v>0.7056</v>
       </c>
       <c r="B31" s="0">
-        <v>183.5821</v>
+        <v>243.2836</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0083</v>
+        <v>0.7521</v>
       </c>
       <c r="B32" s="0">
-        <v>176.6791</v>
+        <v>245.1427</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0035</v>
+        <v>0.8019</v>
       </c>
       <c r="B33" s="0">
-        <v>172.2015</v>
+        <v>247.1874</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0021</v>
+        <v>0.8521</v>
       </c>
       <c r="B34" s="0">
-        <v>168.8433</v>
+        <v>249.9725</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0011</v>
+        <v>0.9005</v>
       </c>
       <c r="B35" s="0">
-        <v>163.9925</v>
-      </c>
-    </row>
-    <row r="36"/>
+        <v>251.8319</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.9493</v>
+      </c>
+      <c r="B36" s="0">
+        <v>254.9867</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.9902</v>
+      </c>
+      <c r="B37" s="0">
+        <v>258.3252</v>
+      </c>
+    </row>
+    <row r="38"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -10089,7 +10105,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10110,237 +10126,293 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9909</v>
+        <v>0.9897</v>
       </c>
       <c r="B3" s="0">
-        <v>213.2463</v>
+        <v>254.9942</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9496</v>
+        <v>0.9507</v>
       </c>
       <c r="B4" s="0">
-        <v>210.6343</v>
+        <v>250.9159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8998</v>
+        <v>0.9009</v>
       </c>
       <c r="B5" s="0">
-        <v>208.3955</v>
+        <v>247.7609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8501</v>
+        <v>0.8516</v>
       </c>
       <c r="B6" s="0">
-        <v>206.5299</v>
+        <v>244.9761</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7998</v>
+        <v>0.8037</v>
       </c>
       <c r="B7" s="0">
-        <v>205.597</v>
+        <v>242.7466</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7524</v>
+        <v>0.7516</v>
       </c>
       <c r="B8" s="0">
-        <v>203.3582</v>
+        <v>240.3314</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7027</v>
+        <v>0.7018</v>
       </c>
       <c r="B9" s="0">
-        <v>202.6119</v>
+        <v>238.1016</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6543</v>
+        <v>0.6544</v>
       </c>
       <c r="B10" s="0">
-        <v>201.1194</v>
+        <v>236.2423</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6055</v>
+        <v>0.6027</v>
       </c>
       <c r="B11" s="0">
-        <v>200</v>
+        <v>234.0122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5548</v>
+        <v>0.5543</v>
       </c>
       <c r="B12" s="0">
-        <v>197.9478</v>
+        <v>232.3378</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5022</v>
+        <v>0.5017</v>
       </c>
       <c r="B13" s="0">
-        <v>197.3881</v>
+        <v>230.8477</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4552</v>
+        <v>0.4477</v>
       </c>
       <c r="B14" s="0">
-        <v>196.8284</v>
+        <v>229.9124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4026</v>
+        <v>0.4008</v>
       </c>
       <c r="B15" s="0">
-        <v>195.8955</v>
+        <v>228.0533</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3581</v>
+        <v>0.3515</v>
       </c>
       <c r="B16" s="0">
-        <v>194.5896</v>
+        <v>226.1937</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3353</v>
+        <v>0.3435</v>
       </c>
       <c r="B17" s="0">
-        <v>194.5896</v>
+        <v>225.637</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3088</v>
+        <v>0.3153</v>
       </c>
       <c r="B18" s="0">
-        <v>193.6567</v>
+        <v>224.8916</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2884</v>
+        <v>0.3045</v>
       </c>
       <c r="B19" s="0">
-        <v>193.6567</v>
+        <v>224.5195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2552</v>
+        <v>0.2683</v>
       </c>
       <c r="B20" s="0">
-        <v>192.9104</v>
+        <v>223.0325</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2017</v>
+        <v>0.2519</v>
       </c>
       <c r="B21" s="0">
-        <v>191.2313</v>
+        <v>222.2892</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.151</v>
+        <v>0.2129</v>
       </c>
       <c r="B22" s="0">
-        <v>188.806</v>
+        <v>220.6166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1012</v>
+        <v>0.2031</v>
       </c>
       <c r="B23" s="0">
-        <v>186.3806</v>
+        <v>220.0596</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0893</v>
+        <v>0.1533</v>
       </c>
       <c r="B24" s="0">
-        <v>185.8209</v>
+        <v>217.2747</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0794</v>
+        <v>0.1035</v>
       </c>
       <c r="B25" s="0">
-        <v>185.0746</v>
+        <v>213.0094</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.068</v>
+        <v>0.0922</v>
       </c>
       <c r="B26" s="0">
-        <v>183.9552</v>
+        <v>211.5269</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0595</v>
+        <v>0.0823</v>
       </c>
       <c r="B27" s="0">
-        <v>183.0224</v>
+        <v>210.0447</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0495</v>
+        <v>0.0743</v>
       </c>
       <c r="B28" s="0">
-        <v>181.7164</v>
+        <v>208.9329</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0395</v>
+        <v>0.0631</v>
       </c>
       <c r="B29" s="0">
-        <v>179.4776</v>
+        <v>206.7102</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0301</v>
+        <v>0.0532</v>
       </c>
       <c r="B30" s="0">
-        <v>177.0522</v>
+        <v>204.6729</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0196</v>
+        <v>0.0419</v>
       </c>
       <c r="B31" s="0">
-        <v>174.0672</v>
-      </c>
-    </row>
-    <row r="32"/>
+        <v>201.3399</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0315</v>
+      </c>
+      <c r="B32" s="0">
+        <v>198.0071</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0221</v>
+      </c>
+      <c r="B33" s="0">
+        <v>192.8241</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0169</v>
+      </c>
+      <c r="B34" s="0">
+        <v>188.567</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0117</v>
+      </c>
+      <c r="B35" s="0">
+        <v>183.5697</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0089</v>
+      </c>
+      <c r="B36" s="0">
+        <v>178.3878</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0055</v>
+      </c>
+      <c r="B37" s="0">
+        <v>173.9461</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0017</v>
+      </c>
+      <c r="B38" s="0">
+        <v>166.9135</v>
+      </c>
+    </row>
+    <row r="39"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -10349,7 +10421,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10370,277 +10442,269 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9922</v>
+        <v>0.9899</v>
       </c>
       <c r="B3" s="0">
-        <v>204.6642</v>
+        <v>220.2052</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9519</v>
+        <v>0.95</v>
       </c>
       <c r="B4" s="0">
-        <v>201.6791</v>
+        <v>217.7922</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9008</v>
+        <v>0.903</v>
       </c>
       <c r="B5" s="0">
-        <v>199.4403</v>
+        <v>215.5629</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8505</v>
+        <v>0.8514</v>
       </c>
       <c r="B6" s="0">
-        <v>198.1343</v>
+        <v>213.7029</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8007</v>
+        <v>0.8035</v>
       </c>
       <c r="B7" s="0">
-        <v>197.3881</v>
+        <v>212.7688</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7515</v>
+        <v>0.7528</v>
       </c>
       <c r="B8" s="0">
-        <v>196.0821</v>
+        <v>211.094</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7036</v>
+        <v>0.7035</v>
       </c>
       <c r="B9" s="0">
-        <v>194.9627</v>
+        <v>209.6045</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6533</v>
+        <v>0.6537</v>
       </c>
       <c r="B10" s="0">
-        <v>193.8433</v>
+        <v>208.2999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6022</v>
+        <v>0.603</v>
       </c>
       <c r="B11" s="0">
-        <v>192.9104</v>
+        <v>206.8101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5533</v>
+        <v>0.5513</v>
       </c>
       <c r="B12" s="0">
-        <v>191.791</v>
+        <v>205.5052</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5021</v>
+        <v>0.5006</v>
       </c>
       <c r="B13" s="0">
-        <v>190.6716</v>
+        <v>204.3856</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4538</v>
+        <v>0.4499</v>
       </c>
       <c r="B14" s="0">
-        <v>189.7388</v>
+        <v>203.451</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4021</v>
+        <v>0.4029</v>
       </c>
       <c r="B15" s="0">
-        <v>188.9925</v>
+        <v>202.7021</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3585</v>
+        <v>0.356</v>
       </c>
       <c r="B16" s="0">
-        <v>188.0597</v>
+        <v>201.213</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3344</v>
+        <v>0.3372</v>
       </c>
       <c r="B17" s="0">
-        <v>188.2463</v>
+        <v>201.0245</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3092</v>
+        <v>0.3104</v>
       </c>
       <c r="B18" s="0">
-        <v>187.1269</v>
+        <v>200.0943</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.287</v>
+        <v>0.286</v>
       </c>
       <c r="B19" s="0">
-        <v>186.9403</v>
+        <v>199.9047</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2595</v>
+        <v>0.2545</v>
       </c>
       <c r="B20" s="0">
-        <v>185.8209</v>
+        <v>198.7886</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2514</v>
+        <v>0.2024</v>
       </c>
       <c r="B21" s="0">
-        <v>186.0075</v>
+        <v>197.2986</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2045</v>
+        <v>0.1526</v>
       </c>
       <c r="B22" s="0">
-        <v>184.5149</v>
+        <v>195.2538</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1524</v>
+        <v>0.1038</v>
       </c>
       <c r="B23" s="0">
-        <v>182.8358</v>
+        <v>192.099</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1016</v>
+        <v>0.0916</v>
       </c>
       <c r="B24" s="0">
-        <v>180.2239</v>
+        <v>190.9864</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0893</v>
+        <v>0.0803</v>
       </c>
       <c r="B25" s="0">
-        <v>179.4776</v>
+        <v>190.2441</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0794</v>
+        <v>0.0728</v>
       </c>
       <c r="B26" s="0">
-        <v>178.7313</v>
+        <v>189.1325</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0703</v>
+        <v>0.062</v>
       </c>
       <c r="B27" s="0">
-        <v>177.6119</v>
+        <v>187.8351</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0594</v>
+        <v>0.0526</v>
       </c>
       <c r="B28" s="0">
-        <v>177.0522</v>
+        <v>186.168</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0509</v>
+        <v>0.0408</v>
       </c>
       <c r="B29" s="0">
-        <v>176.1194</v>
+        <v>183.9452</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.04</v>
+        <v>0.0319</v>
       </c>
       <c r="B30" s="0">
-        <v>173.694</v>
+        <v>181.723</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0305</v>
+        <v>0.0215</v>
       </c>
       <c r="B31" s="0">
-        <v>171.8284</v>
+        <v>177.4649</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0186</v>
+        <v>0.0107</v>
       </c>
       <c r="B32" s="0">
-        <v>167.5373</v>
+        <v>170.2461</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0091</v>
+        <v>0.0088</v>
       </c>
       <c r="B33" s="0">
-        <v>161.7537</v>
+        <v>166.3597</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0049</v>
+        <v>0.0059</v>
       </c>
       <c r="B34" s="0">
-        <v>156.903</v>
+        <v>162.8433</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0044</v>
+        <v>0.004</v>
       </c>
       <c r="B35" s="0">
-        <v>154.1045</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0015</v>
-      </c>
-      <c r="B36" s="0">
-        <v>149.8134</v>
-      </c>
-    </row>
-    <row r="37"/>
+        <v>157.4765</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 140 The Analysis of Pore/Data140_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 140 The Analysis of Pore/Data140_all_graphs_excel.xlsx
@@ -5,16 +5,19 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 C400-90  0&amp;1&amp;0&amp;250 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 C500-90  0&amp;1&amp;0&amp;250 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 C600-90  0&amp;1&amp;0&amp;250 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 3 AC1000-120  0&amp;1&amp;0&amp;250 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 3 AC1000-90  0&amp;1&amp;0&amp;250 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 3 AC850-120  0&amp;1&amp;0&amp;250 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 3 AC850-90  0&amp;1&amp;0&amp;250 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 3 AC900-120  0&amp;1&amp;0&amp;250 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 3 AC950-120  0&amp;1&amp;0&amp;250 " sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 3 AC950-90  0&amp;1&amp;0&amp;250 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 2_1 C400-90  0&amp;1&amp;0&amp;250 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 C500-90  0&amp;1&amp;0&amp;250 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_1 C600-90  0&amp;1&amp;0&amp;250 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_2 C400-90  0&amp;1&amp;0&amp;250 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_2 C500-90  0&amp;1&amp;0&amp;250 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_2 C600-90  0&amp;1&amp;0&amp;250 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 3_1 AC1000-90  0&amp;1&amp;0&amp;250" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 3_1 AC850-90  0&amp;1&amp;0&amp;250 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 3_1 AC950-90  0&amp;1&amp;0&amp;250 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 3_2 AC1000-120  0&amp;1&amp;0&amp;25" sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 3_2 AC850-120  0&amp;1&amp;0&amp;250" sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 3_2 AC900-120  0&amp;1&amp;0&amp;250" sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 3_2 AC950-120  0&amp;1&amp;0&amp;250" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -38,25 +41,25 @@
     <t>C600-90</t>
   </si>
   <si>
+    <t>AC1000-90</t>
+  </si>
+  <si>
+    <t>AC850-90</t>
+  </si>
+  <si>
+    <t>AC950-90</t>
+  </si>
+  <si>
     <t>AC1000-120</t>
   </si>
   <si>
-    <t>AC1000-90</t>
-  </si>
-  <si>
     <t>AC850-120</t>
-  </si>
-  <si>
-    <t>AC850-90</t>
   </si>
   <si>
     <t>AC900-120</t>
   </si>
   <si>
     <t>AC950-120</t>
-  </si>
-  <si>
-    <t>AC950-90</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki C400-90 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki C400-90 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -192,12 +195,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 C400-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 C400-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 C400-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 C400-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -447,7 +450,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC950-90 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki AC1000-120 z wykresu 'Figure 3_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -506,12 +509,954 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC950-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_2 AC1000-120  0&amp;1&amp;0&amp;25'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC950-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_2 AC1000-120  0&amp;1&amp;0&amp;25'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC850-120 z wykresu 'Figure 3_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_2 AC850-120  0&amp;1&amp;0&amp;250'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_2 AC850-120  0&amp;1&amp;0&amp;250'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC900-120 z wykresu 'Figure 3_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_2 AC900-120  0&amp;1&amp;0&amp;250'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_2 AC900-120  0&amp;1&amp;0&amp;250'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC950-120 z wykresu 'Figure 3_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_2 AC950-120  0&amp;1&amp;0&amp;250'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_2 AC950-120  0&amp;1&amp;0&amp;250'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -761,7 +1706,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki C500-90 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki C500-90 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -820,12 +1765,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 C500-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 C500-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 C500-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 C500-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1075,7 +2020,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki C600-90 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki C600-90 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1134,12 +2079,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 C600-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 C600-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 C600-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 C600-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1389,7 +2334,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC1000-120 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki C400-90 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1448,12 +2393,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC1000-120  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 C400-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC1000-120  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 C400-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1703,7 +2648,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC1000-90 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki C500-90 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1762,12 +2707,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC1000-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 C500-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC1000-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 C500-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2017,7 +2962,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC850-120 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki C600-90 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2076,12 +3021,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC850-120  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 C600-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC850-120  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 C600-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2331,7 +3276,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC850-90 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki AC1000-90 z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2390,12 +3335,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC850-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_1 AC1000-90  0&amp;1&amp;0&amp;250'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC850-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_1 AC1000-90  0&amp;1&amp;0&amp;250'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2645,7 +3590,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC900-120 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki AC850-90 z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2704,12 +3649,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC900-120  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_1 AC850-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC900-120  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_1 AC850-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2959,7 +3904,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC950-120 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki AC950-90 z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3018,12 +3963,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC950-120  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_1 AC950-90  0&amp;1&amp;0&amp;250 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC950-120  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_1 AC950-90  0&amp;1&amp;0&amp;250 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3281,6 +4226,126 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4682,6 +5747,1569 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -8903,6 +11531,111 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="11" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9497,7 +12230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9518,285 +12251,269 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0018</v>
+        <v>0.9795</v>
       </c>
       <c r="B3" s="0">
-        <v>175.2407</v>
+        <v>230.597</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0032</v>
+        <v>0.9255</v>
       </c>
       <c r="B4" s="0">
-        <v>181.3476</v>
+        <v>227.2388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0066</v>
+        <v>0.9028</v>
       </c>
       <c r="B5" s="0">
-        <v>186.1594</v>
+        <v>228.5448</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0108</v>
+        <v>0.8828</v>
       </c>
       <c r="B6" s="0">
-        <v>191.3416</v>
+        <v>225.9328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0212</v>
+        <v>0.8515</v>
       </c>
       <c r="B7" s="0">
-        <v>200.5959</v>
+        <v>220.5224</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0311</v>
+        <v>0.8023</v>
       </c>
       <c r="B8" s="0">
-        <v>205.7791</v>
+        <v>218.8433</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0419</v>
+        <v>0.7525</v>
       </c>
       <c r="B9" s="0">
-        <v>208.9269</v>
+        <v>217.5373</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0523</v>
+        <v>0.7018</v>
       </c>
       <c r="B10" s="0">
-        <v>211.5195</v>
+        <v>216.0448</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0636</v>
+        <v>0.6539</v>
       </c>
       <c r="B11" s="0">
-        <v>213.7422</v>
+        <v>214.7388</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0725</v>
+        <v>0.6032</v>
       </c>
       <c r="B12" s="0">
-        <v>215.5943</v>
+        <v>213.2463</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0814</v>
+        <v>0.552</v>
       </c>
       <c r="B13" s="0">
-        <v>217.2614</v>
+        <v>212.1269</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0922</v>
+        <v>0.5013</v>
       </c>
       <c r="B14" s="0">
-        <v>218.1886</v>
+        <v>210.4478</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.104</v>
+        <v>0.4515</v>
       </c>
       <c r="B15" s="0">
-        <v>219.116</v>
+        <v>209.1418</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1519</v>
+        <v>0.3994</v>
       </c>
       <c r="B16" s="0">
-        <v>222.8259</v>
+        <v>208.3955</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.204</v>
+        <v>0.3562</v>
       </c>
       <c r="B17" s="0">
-        <v>225.9813</v>
+        <v>207.2761</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.212</v>
+        <v>0.3401</v>
       </c>
       <c r="B18" s="0">
-        <v>226.1679</v>
+        <v>206.903</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2519</v>
+        <v>0.3117</v>
       </c>
       <c r="B19" s="0">
-        <v>227.8407</v>
+        <v>205.9701</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2665</v>
+        <v>0.2581</v>
       </c>
       <c r="B20" s="0">
-        <v>228.3985</v>
+        <v>204.291</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3055</v>
+        <v>0.2031</v>
       </c>
       <c r="B21" s="0">
-        <v>230.0712</v>
+        <v>202.9851</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3168</v>
+        <v>0.1472</v>
       </c>
       <c r="B22" s="0">
-        <v>230.4433</v>
+        <v>200.5597</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.343</v>
+        <v>0.1007</v>
       </c>
       <c r="B23" s="0">
-        <v>231.1884</v>
+        <v>197.5746</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3553</v>
+        <v>0.0898</v>
       </c>
       <c r="B24" s="0">
-        <v>231.3757</v>
+        <v>196.6418</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3989</v>
+        <v>0.0794</v>
       </c>
       <c r="B25" s="0">
-        <v>232.8642</v>
+        <v>195.8955</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4539</v>
+        <v>0.068</v>
       </c>
       <c r="B26" s="0">
-        <v>236.0202</v>
+        <v>194.7761</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5022</v>
+        <v>0.0604</v>
       </c>
       <c r="B27" s="0">
-        <v>236.0291</v>
+        <v>193.6567</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5534</v>
+        <v>0.051</v>
       </c>
       <c r="B28" s="0">
-        <v>237.3339</v>
+        <v>192.5373</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6032</v>
+        <v>0.0401</v>
       </c>
       <c r="B29" s="0">
-        <v>239.0086</v>
+        <v>190.4851</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6535</v>
+        <v>0.0282</v>
       </c>
       <c r="B30" s="0">
-        <v>241.2384</v>
+        <v>187.3134</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7056</v>
+        <v>0.0197</v>
       </c>
       <c r="B31" s="0">
-        <v>243.2836</v>
+        <v>183.5821</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7521</v>
+        <v>0.0083</v>
       </c>
       <c r="B32" s="0">
-        <v>245.1427</v>
+        <v>176.6791</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8019</v>
+        <v>0.0035</v>
       </c>
       <c r="B33" s="0">
-        <v>247.1874</v>
+        <v>172.2015</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8521</v>
+        <v>0.0021</v>
       </c>
       <c r="B34" s="0">
-        <v>249.9725</v>
+        <v>168.8433</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.9005</v>
+        <v>0.0011</v>
       </c>
       <c r="B35" s="0">
-        <v>251.8319</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.9493</v>
-      </c>
-      <c r="B36" s="0">
-        <v>254.9867</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.9902</v>
-      </c>
-      <c r="B37" s="0">
-        <v>258.3252</v>
-      </c>
-    </row>
-    <row r="38"/>
+        <v>163.9925</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -9813,7 +12530,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -9826,258 +12543,258 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9895</v>
+        <v>0.9902</v>
       </c>
       <c r="B3" s="0">
-        <v>254.6811</v>
+        <v>216.8628</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.95</v>
+        <v>0.9509</v>
       </c>
       <c r="B4" s="0">
-        <v>251.1055</v>
+        <v>213.0462</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9009</v>
+        <v>0.9019</v>
       </c>
       <c r="B5" s="0">
-        <v>247.7138</v>
+        <v>209.5955</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8504</v>
+        <v>0.8524</v>
       </c>
       <c r="B6" s="0">
-        <v>244.8838</v>
+        <v>207.2375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8037</v>
+        <v>0.8015</v>
       </c>
       <c r="B7" s="0">
-        <v>242.8048</v>
+        <v>204.8796</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7517</v>
+        <v>0.7529</v>
       </c>
       <c r="B8" s="0">
-        <v>240.5365</v>
+        <v>203.2497</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7012</v>
+        <v>0.7025</v>
       </c>
       <c r="B9" s="0">
-        <v>237.8938</v>
+        <v>201.256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6536</v>
+        <v>0.6521</v>
       </c>
       <c r="B10" s="0">
-        <v>236.0019</v>
+        <v>199.4444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6031</v>
+        <v>0.6035</v>
       </c>
       <c r="B11" s="0">
-        <v>234.1089</v>
+        <v>197.8144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.554</v>
+        <v>0.5512</v>
       </c>
       <c r="B12" s="0">
-        <v>232.2165</v>
+        <v>196.5494</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5006</v>
+        <v>0.4994</v>
       </c>
       <c r="B13" s="0">
-        <v>230.5098</v>
+        <v>194.9201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4525</v>
+        <v>0.4513</v>
       </c>
       <c r="B14" s="0">
-        <v>228.9925</v>
+        <v>193.8363</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3996</v>
+        <v>0.3949</v>
       </c>
       <c r="B15" s="0">
-        <v>227.286</v>
+        <v>193.1183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3425</v>
+        <v>0.3496</v>
       </c>
       <c r="B16" s="0">
-        <v>225.7654</v>
+        <v>190.7594</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3139</v>
+        <v>0.3394</v>
       </c>
       <c r="B17" s="0">
-        <v>224.6302</v>
+        <v>191.8538</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3029</v>
+        <v>0.3153</v>
       </c>
       <c r="B18" s="0">
-        <v>224.2513</v>
+        <v>190.0373</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2672</v>
+        <v>0.3052</v>
       </c>
       <c r="B19" s="0">
-        <v>223.1135</v>
+        <v>190.5855</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2505</v>
+        <v>0.2695</v>
       </c>
       <c r="B20" s="0">
-        <v>221.9828</v>
+        <v>188.2249</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2128</v>
+        <v>0.2529</v>
       </c>
       <c r="B21" s="0">
-        <v>220.6568</v>
+        <v>188.7741</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2024</v>
+        <v>0.215</v>
       </c>
       <c r="B22" s="0">
-        <v>220.0907</v>
+        <v>186.0498</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1519</v>
+        <v>0.2029</v>
       </c>
       <c r="B23" s="0">
-        <v>217.0732</v>
+        <v>186.7803</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1018</v>
+        <v>0.1516</v>
       </c>
       <c r="B24" s="0">
-        <v>212.7441</v>
+        <v>183.6943</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0913</v>
+        <v>0.1026</v>
       </c>
       <c r="B25" s="0">
-        <v>211.4284</v>
+        <v>179.6974</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0742</v>
+        <v>0.0877</v>
       </c>
       <c r="B26" s="0">
-        <v>208.4234</v>
+        <v>178.2434</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0603</v>
+        <v>0.0803</v>
       </c>
       <c r="B27" s="0">
-        <v>206.3568</v>
+        <v>176.4239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0513</v>
+        <v>0.0692</v>
       </c>
       <c r="B28" s="0">
-        <v>204.4793</v>
+        <v>175.1514</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0403</v>
+        <v>0.0512</v>
       </c>
       <c r="B29" s="0">
-        <v>201.1019</v>
+        <v>171.8771</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0308</v>
+        <v>0.0396</v>
       </c>
       <c r="B30" s="0">
-        <v>197.5376</v>
+        <v>169.148</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0207</v>
+        <v>0.0304</v>
       </c>
       <c r="B31" s="0">
-        <v>192.4739</v>
+        <v>166.2364</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0155</v>
+        <v>0.0197</v>
       </c>
       <c r="B32" s="0">
-        <v>188.349</v>
+        <v>161.3221</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0097</v>
+        <v>0.01</v>
       </c>
       <c r="B33" s="0">
-        <v>183.2868</v>
+        <v>153.1301</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0073</v>
+        <v>0.0067</v>
       </c>
       <c r="B34" s="0">
-        <v>177.8512</v>
+        <v>145.8474</v>
       </c>
     </row>
     <row r="35">
@@ -10085,15 +12802,15 @@
         <v>0.0049</v>
       </c>
       <c r="B35" s="0">
-        <v>174.1021</v>
+        <v>143.1165</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0025</v>
+        <v>0.0026</v>
       </c>
       <c r="B36" s="0">
-        <v>167.9168</v>
+        <v>137.6544</v>
       </c>
     </row>
     <row r="37"/>
@@ -10103,7 +12820,1687 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9883</v>
+      </c>
+      <c r="B3" s="0">
+        <v>186.8194</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9504</v>
+      </c>
+      <c r="B4" s="0">
+        <v>185.0055</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9347</v>
+      </c>
+      <c r="B5" s="0">
+        <v>185.7367</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9009</v>
+      </c>
+      <c r="B6" s="0">
+        <v>183.922</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8514</v>
+      </c>
+      <c r="B7" s="0">
+        <v>183.0206</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8014</v>
+      </c>
+      <c r="B8" s="0">
+        <v>182.6655</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7529</v>
+      </c>
+      <c r="B9" s="0">
+        <v>182.3102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.702</v>
+      </c>
+      <c r="B10" s="0">
+        <v>181.7732</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6021</v>
+      </c>
+      <c r="B11" s="0">
+        <v>180.5168</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5507</v>
+      </c>
+      <c r="B12" s="0">
+        <v>179.9799</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.5008</v>
+      </c>
+      <c r="B13" s="0">
+        <v>179.0786</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4504</v>
+      </c>
+      <c r="B14" s="0">
+        <v>178.7236</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4004</v>
+      </c>
+      <c r="B15" s="0">
+        <v>178.5506</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.356</v>
+      </c>
+      <c r="B16" s="0">
+        <v>177.8304</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3347</v>
+      </c>
+      <c r="B17" s="0">
+        <v>177.4701</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3061</v>
+      </c>
+      <c r="B18" s="0">
+        <v>176.9291</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2871</v>
+      </c>
+      <c r="B19" s="0">
+        <v>176.9325</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2533</v>
+      </c>
+      <c r="B20" s="0">
+        <v>176.2103</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2038</v>
+      </c>
+      <c r="B21" s="0">
+        <v>175.1268</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.1506</v>
+      </c>
+      <c r="B22" s="0">
+        <v>173.8619</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1016</v>
+      </c>
+      <c r="B23" s="0">
+        <v>171.868</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0905</v>
+      </c>
+      <c r="B24" s="0">
+        <v>170.9596</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0817</v>
+      </c>
+      <c r="B25" s="0">
+        <v>170.597</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0702</v>
+      </c>
+      <c r="B26" s="0">
+        <v>169.8708</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0234</v>
+      </c>
+      <c r="B27" s="0">
+        <v>163.5064</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0105</v>
+      </c>
+      <c r="B28" s="0">
+        <v>160.2312</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0063</v>
+      </c>
+      <c r="B29" s="0">
+        <v>156.2262</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0026</v>
+      </c>
+      <c r="B30" s="0">
+        <v>153.1314</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0012</v>
+      </c>
+      <c r="B31" s="0">
+        <v>149.6721</v>
+      </c>
+    </row>
+    <row r="32"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9884</v>
+      </c>
+      <c r="B3" s="0">
+        <v>235.9818</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9514</v>
+      </c>
+      <c r="B4" s="0">
+        <v>233.2573</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8996</v>
+      </c>
+      <c r="B5" s="0">
+        <v>231.0817</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8524</v>
+      </c>
+      <c r="B6" s="0">
+        <v>229.4516</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8006</v>
+      </c>
+      <c r="B7" s="0">
+        <v>227.8223</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7488</v>
+      </c>
+      <c r="B8" s="0">
+        <v>226.5571</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7012</v>
+      </c>
+      <c r="B9" s="0">
+        <v>225.1091</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6498</v>
+      </c>
+      <c r="B10" s="0">
+        <v>223.4797</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6026</v>
+      </c>
+      <c r="B11" s="0">
+        <v>222.3958</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5513</v>
+      </c>
+      <c r="B12" s="0">
+        <v>220.9485</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.5018</v>
+      </c>
+      <c r="B13" s="0">
+        <v>220.0471</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4514</v>
+      </c>
+      <c r="B14" s="0">
+        <v>219.51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B15" s="0">
+        <v>218.0627</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3501</v>
+      </c>
+      <c r="B16" s="0">
+        <v>216.6151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3376</v>
+      </c>
+      <c r="B17" s="0">
+        <v>216.4353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3112</v>
+      </c>
+      <c r="B18" s="0">
+        <v>215.5297</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2872</v>
+      </c>
+      <c r="B19" s="0">
+        <v>215.352</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2516</v>
+      </c>
+      <c r="B20" s="0">
+        <v>214.4481</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2048</v>
+      </c>
+      <c r="B21" s="0">
+        <v>212.6358</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.1526</v>
+      </c>
+      <c r="B22" s="0">
+        <v>210.2782</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1035</v>
+      </c>
+      <c r="B23" s="0">
+        <v>207.0096</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0934</v>
+      </c>
+      <c r="B24" s="0">
+        <v>205.919</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0832</v>
+      </c>
+      <c r="B25" s="0">
+        <v>204.6463</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0744</v>
+      </c>
+      <c r="B26" s="0">
+        <v>203.3733</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0665</v>
+      </c>
+      <c r="B27" s="0">
+        <v>202.1001</v>
+      </c>
+    </row>
+    <row r="28"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9903</v>
+      </c>
+      <c r="B3" s="0">
+        <v>246.9064</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9505</v>
+      </c>
+      <c r="B4" s="0">
+        <v>243.4541</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9001</v>
+      </c>
+      <c r="B5" s="0">
+        <v>240.732</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8506</v>
+      </c>
+      <c r="B6" s="0">
+        <v>238.374</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8048</v>
+      </c>
+      <c r="B7" s="0">
+        <v>236.1973</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7511</v>
+      </c>
+      <c r="B8" s="0">
+        <v>234.2042</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7007</v>
+      </c>
+      <c r="B9" s="0">
+        <v>232.2104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6521</v>
+      </c>
+      <c r="B10" s="0">
+        <v>230.7626</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6022</v>
+      </c>
+      <c r="B11" s="0">
+        <v>229.133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5527</v>
+      </c>
+      <c r="B12" s="0">
+        <v>227.3212</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.4995</v>
+      </c>
+      <c r="B13" s="0">
+        <v>226.2383</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4537</v>
+      </c>
+      <c r="B14" s="0">
+        <v>225.1542</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3968</v>
+      </c>
+      <c r="B15" s="0">
+        <v>223.89</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3593</v>
+      </c>
+      <c r="B16" s="0">
+        <v>222.258</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.339</v>
+      </c>
+      <c r="B17" s="0">
+        <v>222.4438</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3135</v>
+      </c>
+      <c r="B18" s="0">
+        <v>220.9918</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.3061</v>
+      </c>
+      <c r="B19" s="0">
+        <v>221.1752</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2645</v>
+      </c>
+      <c r="B20" s="0">
+        <v>219.1799</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2548</v>
+      </c>
+      <c r="B21" s="0">
+        <v>219.5458</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.2067</v>
+      </c>
+      <c r="B22" s="0">
+        <v>216.8233</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.2007</v>
+      </c>
+      <c r="B23" s="0">
+        <v>217.3707</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1526</v>
+      </c>
+      <c r="B24" s="0">
+        <v>214.6482</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.1456</v>
+      </c>
+      <c r="B25" s="0">
+        <v>213.3749</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.1031</v>
+      </c>
+      <c r="B26" s="0">
+        <v>210.4693</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0883</v>
+      </c>
+      <c r="B27" s="0">
+        <v>208.4691</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0804</v>
+      </c>
+      <c r="B28" s="0">
+        <v>207.9243</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0702</v>
+      </c>
+      <c r="B29" s="0">
+        <v>206.1053</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0614</v>
+      </c>
+      <c r="B30" s="0">
+        <v>204.6502</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0503</v>
+      </c>
+      <c r="B31" s="0">
+        <v>202.2852</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0415</v>
+      </c>
+      <c r="B32" s="0">
+        <v>200.1018</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0309</v>
+      </c>
+      <c r="B33" s="0">
+        <v>196.8262</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0207</v>
+      </c>
+      <c r="B34" s="0">
+        <v>192.0939</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0101</v>
+      </c>
+      <c r="B35" s="0">
+        <v>184.6304</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0105</v>
+      </c>
+      <c r="B36" s="0">
+        <v>181.1708</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0073</v>
+      </c>
+      <c r="B37" s="0">
+        <v>176.8014</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0054</v>
+      </c>
+      <c r="B38" s="0">
+        <v>172.4317</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0035</v>
+      </c>
+      <c r="B39" s="0">
+        <v>166.2412</v>
+      </c>
+    </row>
+    <row r="40"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9909</v>
+      </c>
+      <c r="B3" s="0">
+        <v>213.2463</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9496</v>
+      </c>
+      <c r="B4" s="0">
+        <v>210.6343</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8998</v>
+      </c>
+      <c r="B5" s="0">
+        <v>208.3955</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8501</v>
+      </c>
+      <c r="B6" s="0">
+        <v>206.5299</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.7998</v>
+      </c>
+      <c r="B7" s="0">
+        <v>205.597</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7524</v>
+      </c>
+      <c r="B8" s="0">
+        <v>203.3582</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7027</v>
+      </c>
+      <c r="B9" s="0">
+        <v>202.6119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6543</v>
+      </c>
+      <c r="B10" s="0">
+        <v>201.1194</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6055</v>
+      </c>
+      <c r="B11" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5548</v>
+      </c>
+      <c r="B12" s="0">
+        <v>197.9478</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.5022</v>
+      </c>
+      <c r="B13" s="0">
+        <v>197.3881</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4552</v>
+      </c>
+      <c r="B14" s="0">
+        <v>196.8284</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4026</v>
+      </c>
+      <c r="B15" s="0">
+        <v>195.8955</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3581</v>
+      </c>
+      <c r="B16" s="0">
+        <v>194.5896</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3353</v>
+      </c>
+      <c r="B17" s="0">
+        <v>194.5896</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3088</v>
+      </c>
+      <c r="B18" s="0">
+        <v>193.6567</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2884</v>
+      </c>
+      <c r="B19" s="0">
+        <v>193.6567</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2552</v>
+      </c>
+      <c r="B20" s="0">
+        <v>192.9104</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2017</v>
+      </c>
+      <c r="B21" s="0">
+        <v>191.2313</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.151</v>
+      </c>
+      <c r="B22" s="0">
+        <v>188.806</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1012</v>
+      </c>
+      <c r="B23" s="0">
+        <v>186.3806</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0893</v>
+      </c>
+      <c r="B24" s="0">
+        <v>185.8209</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0794</v>
+      </c>
+      <c r="B25" s="0">
+        <v>185.0746</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.068</v>
+      </c>
+      <c r="B26" s="0">
+        <v>183.9552</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0595</v>
+      </c>
+      <c r="B27" s="0">
+        <v>183.0224</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0495</v>
+      </c>
+      <c r="B28" s="0">
+        <v>181.7164</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0395</v>
+      </c>
+      <c r="B29" s="0">
+        <v>179.4776</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0301</v>
+      </c>
+      <c r="B30" s="0">
+        <v>177.0522</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0196</v>
+      </c>
+      <c r="B31" s="0">
+        <v>174.0672</v>
+      </c>
+    </row>
+    <row r="32"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9922</v>
+      </c>
+      <c r="B3" s="0">
+        <v>204.6642</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9519</v>
+      </c>
+      <c r="B4" s="0">
+        <v>201.6791</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9008</v>
+      </c>
+      <c r="B5" s="0">
+        <v>199.4403</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8505</v>
+      </c>
+      <c r="B6" s="0">
+        <v>198.1343</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8007</v>
+      </c>
+      <c r="B7" s="0">
+        <v>197.3881</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7515</v>
+      </c>
+      <c r="B8" s="0">
+        <v>196.0821</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7036</v>
+      </c>
+      <c r="B9" s="0">
+        <v>194.9627</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6533</v>
+      </c>
+      <c r="B10" s="0">
+        <v>193.8433</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6022</v>
+      </c>
+      <c r="B11" s="0">
+        <v>192.9104</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5533</v>
+      </c>
+      <c r="B12" s="0">
+        <v>191.791</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.5021</v>
+      </c>
+      <c r="B13" s="0">
+        <v>190.6716</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4538</v>
+      </c>
+      <c r="B14" s="0">
+        <v>189.7388</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4021</v>
+      </c>
+      <c r="B15" s="0">
+        <v>188.9925</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3585</v>
+      </c>
+      <c r="B16" s="0">
+        <v>188.0597</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3344</v>
+      </c>
+      <c r="B17" s="0">
+        <v>188.2463</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3092</v>
+      </c>
+      <c r="B18" s="0">
+        <v>187.1269</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.287</v>
+      </c>
+      <c r="B19" s="0">
+        <v>186.9403</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2595</v>
+      </c>
+      <c r="B20" s="0">
+        <v>185.8209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2514</v>
+      </c>
+      <c r="B21" s="0">
+        <v>186.0075</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.2045</v>
+      </c>
+      <c r="B22" s="0">
+        <v>184.5149</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1524</v>
+      </c>
+      <c r="B23" s="0">
+        <v>182.8358</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1016</v>
+      </c>
+      <c r="B24" s="0">
+        <v>180.2239</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0893</v>
+      </c>
+      <c r="B25" s="0">
+        <v>179.4776</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0794</v>
+      </c>
+      <c r="B26" s="0">
+        <v>178.7313</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0703</v>
+      </c>
+      <c r="B27" s="0">
+        <v>177.6119</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0594</v>
+      </c>
+      <c r="B28" s="0">
+        <v>177.0522</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0509</v>
+      </c>
+      <c r="B29" s="0">
+        <v>176.1194</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.04</v>
+      </c>
+      <c r="B30" s="0">
+        <v>173.694</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0305</v>
+      </c>
+      <c r="B31" s="0">
+        <v>171.8284</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0186</v>
+      </c>
+      <c r="B32" s="0">
+        <v>167.5373</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0091</v>
+      </c>
+      <c r="B33" s="0">
+        <v>161.7537</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0049</v>
+      </c>
+      <c r="B34" s="0">
+        <v>156.903</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0044</v>
+      </c>
+      <c r="B35" s="0">
+        <v>154.1045</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0015</v>
+      </c>
+      <c r="B36" s="0">
+        <v>149.8134</v>
+      </c>
+    </row>
+    <row r="37"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0018</v>
+      </c>
+      <c r="B3" s="0">
+        <v>175.2407</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0032</v>
+      </c>
+      <c r="B4" s="0">
+        <v>181.3476</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0066</v>
+      </c>
+      <c r="B5" s="0">
+        <v>186.1594</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0108</v>
+      </c>
+      <c r="B6" s="0">
+        <v>191.3416</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0212</v>
+      </c>
+      <c r="B7" s="0">
+        <v>200.5959</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0311</v>
+      </c>
+      <c r="B8" s="0">
+        <v>205.7791</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.0419</v>
+      </c>
+      <c r="B9" s="0">
+        <v>208.9269</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.0523</v>
+      </c>
+      <c r="B10" s="0">
+        <v>211.5195</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.0636</v>
+      </c>
+      <c r="B11" s="0">
+        <v>213.7422</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.0725</v>
+      </c>
+      <c r="B12" s="0">
+        <v>215.5943</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0814</v>
+      </c>
+      <c r="B13" s="0">
+        <v>217.2614</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0922</v>
+      </c>
+      <c r="B14" s="0">
+        <v>218.1886</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.104</v>
+      </c>
+      <c r="B15" s="0">
+        <v>219.116</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.1519</v>
+      </c>
+      <c r="B16" s="0">
+        <v>222.8259</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.204</v>
+      </c>
+      <c r="B17" s="0">
+        <v>225.9813</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.212</v>
+      </c>
+      <c r="B18" s="0">
+        <v>226.1679</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2519</v>
+      </c>
+      <c r="B19" s="0">
+        <v>227.8407</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2665</v>
+      </c>
+      <c r="B20" s="0">
+        <v>228.3985</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.3055</v>
+      </c>
+      <c r="B21" s="0">
+        <v>230.0712</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.3168</v>
+      </c>
+      <c r="B22" s="0">
+        <v>230.4433</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.343</v>
+      </c>
+      <c r="B23" s="0">
+        <v>231.1884</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.3553</v>
+      </c>
+      <c r="B24" s="0">
+        <v>231.3757</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.3989</v>
+      </c>
+      <c r="B25" s="0">
+        <v>232.8642</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.4539</v>
+      </c>
+      <c r="B26" s="0">
+        <v>236.0202</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.5022</v>
+      </c>
+      <c r="B27" s="0">
+        <v>236.0291</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.5534</v>
+      </c>
+      <c r="B28" s="0">
+        <v>237.3339</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.6032</v>
+      </c>
+      <c r="B29" s="0">
+        <v>239.0086</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.6535</v>
+      </c>
+      <c r="B30" s="0">
+        <v>241.2384</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.7056</v>
+      </c>
+      <c r="B31" s="0">
+        <v>243.2836</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.7521</v>
+      </c>
+      <c r="B32" s="0">
+        <v>245.1427</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.8019</v>
+      </c>
+      <c r="B33" s="0">
+        <v>247.1874</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.8521</v>
+      </c>
+      <c r="B34" s="0">
+        <v>249.9725</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.9005</v>
+      </c>
+      <c r="B35" s="0">
+        <v>251.8319</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.9493</v>
+      </c>
+      <c r="B36" s="0">
+        <v>254.9867</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.9902</v>
+      </c>
+      <c r="B37" s="0">
+        <v>258.3252</v>
+      </c>
+    </row>
+    <row r="38"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B39"/>
   <sheetViews>
@@ -10419,7 +14816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B36"/>
   <sheetViews>
@@ -10711,7 +15108,591 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9889</v>
+      </c>
+      <c r="B3" s="0">
+        <v>212.5144</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9503</v>
+      </c>
+      <c r="B4" s="0">
+        <v>209.5014</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9003</v>
+      </c>
+      <c r="B5" s="0">
+        <v>206.859</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8517</v>
+      </c>
+      <c r="B6" s="0">
+        <v>204.9667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8002</v>
+      </c>
+      <c r="B7" s="0">
+        <v>202.6985</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7506</v>
+      </c>
+      <c r="B8" s="0">
+        <v>201.1807</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7001</v>
+      </c>
+      <c r="B9" s="0">
+        <v>199.4751</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6506</v>
+      </c>
+      <c r="B10" s="0">
+        <v>198.1447</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6191</v>
+      </c>
+      <c r="B11" s="0">
+        <v>197.1959</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5501</v>
+      </c>
+      <c r="B12" s="0">
+        <v>195.2959</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.501</v>
+      </c>
+      <c r="B13" s="0">
+        <v>194.1531</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4519</v>
+      </c>
+      <c r="B14" s="0">
+        <v>193.0103</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B15" s="0">
+        <v>192.2412</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3561</v>
+      </c>
+      <c r="B16" s="0">
+        <v>190.7255</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3409</v>
+      </c>
+      <c r="B17" s="0">
+        <v>191.0946</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3133</v>
+      </c>
+      <c r="B18" s="0">
+        <v>189.585</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.3061</v>
+      </c>
+      <c r="B19" s="0">
+        <v>189.9571</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2651</v>
+      </c>
+      <c r="B20" s="0">
+        <v>188.2551</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2518</v>
+      </c>
+      <c r="B21" s="0">
+        <v>188.4375</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.2113</v>
+      </c>
+      <c r="B22" s="0">
+        <v>186.3609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.2046</v>
+      </c>
+      <c r="B23" s="0">
+        <v>186.7332</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1527</v>
+      </c>
+      <c r="B24" s="0">
+        <v>183.9026</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.1017</v>
+      </c>
+      <c r="B25" s="0">
+        <v>180.3228</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0893</v>
+      </c>
+      <c r="B26" s="0">
+        <v>179.0063</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0812</v>
+      </c>
+      <c r="B27" s="0">
+        <v>178.0662</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0707</v>
+      </c>
+      <c r="B28" s="0">
+        <v>176.9379</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0631</v>
+      </c>
+      <c r="B29" s="0">
+        <v>175.6232</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0497</v>
+      </c>
+      <c r="B30" s="0">
+        <v>173.5567</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0407</v>
+      </c>
+      <c r="B31" s="0">
+        <v>171.117</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0307</v>
+      </c>
+      <c r="B32" s="0">
+        <v>168.3022</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0206</v>
+      </c>
+      <c r="B33" s="0">
+        <v>164.5503</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0092</v>
+      </c>
+      <c r="B34" s="0">
+        <v>156.4875</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0072</v>
+      </c>
+      <c r="B35" s="0">
+        <v>151.052</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0044</v>
+      </c>
+      <c r="B36" s="0">
+        <v>147.4902</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="B37" s="0">
+        <v>142.6168</v>
+      </c>
+    </row>
+    <row r="38"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9888</v>
+      </c>
+      <c r="B3" s="0">
+        <v>176.5323</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9511</v>
+      </c>
+      <c r="B4" s="0">
+        <v>174.6442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.902</v>
+      </c>
+      <c r="B5" s="0">
+        <v>173.5013</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.853</v>
+      </c>
+      <c r="B6" s="0">
+        <v>172.9207</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8029</v>
+      </c>
+      <c r="B7" s="0">
+        <v>172.3398</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7515</v>
+      </c>
+      <c r="B8" s="0">
+        <v>171.3834</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.701</v>
+      </c>
+      <c r="B9" s="0">
+        <v>171.1771</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6543</v>
+      </c>
+      <c r="B10" s="0">
+        <v>170.5974</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6052</v>
+      </c>
+      <c r="B11" s="0">
+        <v>170.0168</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5533</v>
+      </c>
+      <c r="B12" s="0">
+        <v>169.4351</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.5047</v>
+      </c>
+      <c r="B13" s="0">
+        <v>168.4798</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4523</v>
+      </c>
+      <c r="B14" s="0">
+        <v>168.0854</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4013</v>
+      </c>
+      <c r="B15" s="0">
+        <v>167.3167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3537</v>
+      </c>
+      <c r="B16" s="0">
+        <v>166.5492</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3351</v>
+      </c>
+      <c r="B17" s="0">
+        <v>166.5422</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3065</v>
+      </c>
+      <c r="B18" s="0">
+        <v>165.7819</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2841</v>
+      </c>
+      <c r="B19" s="0">
+        <v>165.5861</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2536</v>
+      </c>
+      <c r="B20" s="0">
+        <v>165.0124</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2007</v>
+      </c>
+      <c r="B21" s="0">
+        <v>164.0556</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.1526</v>
+      </c>
+      <c r="B22" s="0">
+        <v>162.7257</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1021</v>
+      </c>
+      <c r="B23" s="0">
+        <v>160.8327</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0897</v>
+      </c>
+      <c r="B24" s="0">
+        <v>160.2658</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0802</v>
+      </c>
+      <c r="B25" s="0">
+        <v>159.7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0735</v>
+      </c>
+      <c r="B26" s="0">
+        <v>159.3227</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0611</v>
+      </c>
+      <c r="B27" s="0">
+        <v>158.5685</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0525</v>
+      </c>
+      <c r="B28" s="0">
+        <v>157.8156</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0406</v>
+      </c>
+      <c r="B29" s="0">
+        <v>156.4993</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0311</v>
+      </c>
+      <c r="B30" s="0">
+        <v>155.3713</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0206</v>
+      </c>
+      <c r="B31" s="0">
+        <v>152.5563</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0134</v>
+      </c>
+      <c r="B32" s="0">
+        <v>147.4936</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="B33" s="0">
+        <v>140.7427</v>
+      </c>
+    </row>
+    <row r="34"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B37"/>
   <sheetViews>
@@ -10721,7 +15702,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -10734,258 +15715,258 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9902</v>
+        <v>0.9895</v>
       </c>
       <c r="B3" s="0">
-        <v>216.8628</v>
+        <v>254.6811</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9509</v>
+        <v>0.95</v>
       </c>
       <c r="B4" s="0">
-        <v>213.0462</v>
+        <v>251.1055</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9019</v>
+        <v>0.9009</v>
       </c>
       <c r="B5" s="0">
-        <v>209.5955</v>
+        <v>247.7138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8524</v>
+        <v>0.8504</v>
       </c>
       <c r="B6" s="0">
-        <v>207.2375</v>
+        <v>244.8838</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8015</v>
+        <v>0.8037</v>
       </c>
       <c r="B7" s="0">
-        <v>204.8796</v>
+        <v>242.8048</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7529</v>
+        <v>0.7517</v>
       </c>
       <c r="B8" s="0">
-        <v>203.2497</v>
+        <v>240.5365</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7025</v>
+        <v>0.7012</v>
       </c>
       <c r="B9" s="0">
-        <v>201.256</v>
+        <v>237.8938</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6521</v>
+        <v>0.6536</v>
       </c>
       <c r="B10" s="0">
-        <v>199.4444</v>
+        <v>236.0019</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6035</v>
+        <v>0.6031</v>
       </c>
       <c r="B11" s="0">
-        <v>197.8144</v>
+        <v>234.1089</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5512</v>
+        <v>0.554</v>
       </c>
       <c r="B12" s="0">
-        <v>196.5494</v>
+        <v>232.2165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4994</v>
+        <v>0.5006</v>
       </c>
       <c r="B13" s="0">
-        <v>194.9201</v>
+        <v>230.5098</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4513</v>
+        <v>0.4525</v>
       </c>
       <c r="B14" s="0">
-        <v>193.8363</v>
+        <v>228.9925</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3949</v>
+        <v>0.3996</v>
       </c>
       <c r="B15" s="0">
-        <v>193.1183</v>
+        <v>227.286</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3496</v>
+        <v>0.3425</v>
       </c>
       <c r="B16" s="0">
-        <v>190.7594</v>
+        <v>225.7654</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3394</v>
+        <v>0.3139</v>
       </c>
       <c r="B17" s="0">
-        <v>191.8538</v>
+        <v>224.6302</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3153</v>
+        <v>0.3029</v>
       </c>
       <c r="B18" s="0">
-        <v>190.0373</v>
+        <v>224.2513</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3052</v>
+        <v>0.2672</v>
       </c>
       <c r="B19" s="0">
-        <v>190.5855</v>
+        <v>223.1135</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2695</v>
+        <v>0.2505</v>
       </c>
       <c r="B20" s="0">
-        <v>188.2249</v>
+        <v>221.9828</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2529</v>
+        <v>0.2128</v>
       </c>
       <c r="B21" s="0">
-        <v>188.7741</v>
+        <v>220.6568</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.215</v>
+        <v>0.2024</v>
       </c>
       <c r="B22" s="0">
-        <v>186.0498</v>
+        <v>220.0907</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2029</v>
+        <v>0.1519</v>
       </c>
       <c r="B23" s="0">
-        <v>186.7803</v>
+        <v>217.0732</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1516</v>
+        <v>0.1018</v>
       </c>
       <c r="B24" s="0">
-        <v>183.6943</v>
+        <v>212.7441</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1026</v>
+        <v>0.0913</v>
       </c>
       <c r="B25" s="0">
-        <v>179.6974</v>
+        <v>211.4284</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0877</v>
+        <v>0.0742</v>
       </c>
       <c r="B26" s="0">
-        <v>178.2434</v>
+        <v>208.4234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0803</v>
+        <v>0.0603</v>
       </c>
       <c r="B27" s="0">
-        <v>176.4239</v>
+        <v>206.3568</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0692</v>
+        <v>0.0513</v>
       </c>
       <c r="B28" s="0">
-        <v>175.1514</v>
+        <v>204.4793</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0512</v>
+        <v>0.0403</v>
       </c>
       <c r="B29" s="0">
-        <v>171.8771</v>
+        <v>201.1019</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0396</v>
+        <v>0.0308</v>
       </c>
       <c r="B30" s="0">
-        <v>169.148</v>
+        <v>197.5376</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0304</v>
+        <v>0.0207</v>
       </c>
       <c r="B31" s="0">
-        <v>166.2364</v>
+        <v>192.4739</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0197</v>
+        <v>0.0155</v>
       </c>
       <c r="B32" s="0">
-        <v>161.3221</v>
+        <v>188.349</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.01</v>
+        <v>0.0097</v>
       </c>
       <c r="B33" s="0">
-        <v>153.1301</v>
+        <v>183.2868</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0067</v>
+        <v>0.0073</v>
       </c>
       <c r="B34" s="0">
-        <v>145.8474</v>
+        <v>177.8512</v>
       </c>
     </row>
     <row r="35">
@@ -10993,15 +15974,15 @@
         <v>0.0049</v>
       </c>
       <c r="B35" s="0">
-        <v>143.1165</v>
+        <v>174.1021</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0026</v>
+        <v>0.0025</v>
       </c>
       <c r="B36" s="0">
-        <v>137.6544</v>
+        <v>167.9168</v>
       </c>
     </row>
     <row r="37"/>
@@ -11009,1400 +15990,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9889</v>
-      </c>
-      <c r="B3" s="0">
-        <v>212.5144</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9503</v>
-      </c>
-      <c r="B4" s="0">
-        <v>209.5014</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.9003</v>
-      </c>
-      <c r="B5" s="0">
-        <v>206.859</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.8517</v>
-      </c>
-      <c r="B6" s="0">
-        <v>204.9667</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.8002</v>
-      </c>
-      <c r="B7" s="0">
-        <v>202.6985</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.7506</v>
-      </c>
-      <c r="B8" s="0">
-        <v>201.1807</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.7001</v>
-      </c>
-      <c r="B9" s="0">
-        <v>199.4751</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.6506</v>
-      </c>
-      <c r="B10" s="0">
-        <v>198.1447</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.6191</v>
-      </c>
-      <c r="B11" s="0">
-        <v>197.1959</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.5501</v>
-      </c>
-      <c r="B12" s="0">
-        <v>195.2959</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.501</v>
-      </c>
-      <c r="B13" s="0">
-        <v>194.1531</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.4519</v>
-      </c>
-      <c r="B14" s="0">
-        <v>193.0103</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B15" s="0">
-        <v>192.2412</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3561</v>
-      </c>
-      <c r="B16" s="0">
-        <v>190.7255</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3409</v>
-      </c>
-      <c r="B17" s="0">
-        <v>191.0946</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3133</v>
-      </c>
-      <c r="B18" s="0">
-        <v>189.585</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.3061</v>
-      </c>
-      <c r="B19" s="0">
-        <v>189.9571</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.2651</v>
-      </c>
-      <c r="B20" s="0">
-        <v>188.2551</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.2518</v>
-      </c>
-      <c r="B21" s="0">
-        <v>188.4375</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.2113</v>
-      </c>
-      <c r="B22" s="0">
-        <v>186.3609</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.2046</v>
-      </c>
-      <c r="B23" s="0">
-        <v>186.7332</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.1527</v>
-      </c>
-      <c r="B24" s="0">
-        <v>183.9026</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.1017</v>
-      </c>
-      <c r="B25" s="0">
-        <v>180.3228</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0893</v>
-      </c>
-      <c r="B26" s="0">
-        <v>179.0063</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0812</v>
-      </c>
-      <c r="B27" s="0">
-        <v>178.0662</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0707</v>
-      </c>
-      <c r="B28" s="0">
-        <v>176.9379</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0631</v>
-      </c>
-      <c r="B29" s="0">
-        <v>175.6232</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0497</v>
-      </c>
-      <c r="B30" s="0">
-        <v>173.5567</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0407</v>
-      </c>
-      <c r="B31" s="0">
-        <v>171.117</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0307</v>
-      </c>
-      <c r="B32" s="0">
-        <v>168.3022</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0206</v>
-      </c>
-      <c r="B33" s="0">
-        <v>164.5503</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0092</v>
-      </c>
-      <c r="B34" s="0">
-        <v>156.4875</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.0072</v>
-      </c>
-      <c r="B35" s="0">
-        <v>151.052</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0044</v>
-      </c>
-      <c r="B36" s="0">
-        <v>147.4902</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="B37" s="0">
-        <v>142.6168</v>
-      </c>
-    </row>
-    <row r="38"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9883</v>
-      </c>
-      <c r="B3" s="0">
-        <v>186.8194</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9504</v>
-      </c>
-      <c r="B4" s="0">
-        <v>185.0055</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.9347</v>
-      </c>
-      <c r="B5" s="0">
-        <v>185.7367</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.9009</v>
-      </c>
-      <c r="B6" s="0">
-        <v>183.922</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.8514</v>
-      </c>
-      <c r="B7" s="0">
-        <v>183.0206</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.8014</v>
-      </c>
-      <c r="B8" s="0">
-        <v>182.6655</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.7529</v>
-      </c>
-      <c r="B9" s="0">
-        <v>182.3102</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.702</v>
-      </c>
-      <c r="B10" s="0">
-        <v>181.7732</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.6021</v>
-      </c>
-      <c r="B11" s="0">
-        <v>180.5168</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.5507</v>
-      </c>
-      <c r="B12" s="0">
-        <v>179.9799</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.5008</v>
-      </c>
-      <c r="B13" s="0">
-        <v>179.0786</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.4504</v>
-      </c>
-      <c r="B14" s="0">
-        <v>178.7236</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.4004</v>
-      </c>
-      <c r="B15" s="0">
-        <v>178.5506</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.356</v>
-      </c>
-      <c r="B16" s="0">
-        <v>177.8304</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3347</v>
-      </c>
-      <c r="B17" s="0">
-        <v>177.4701</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3061</v>
-      </c>
-      <c r="B18" s="0">
-        <v>176.9291</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.2871</v>
-      </c>
-      <c r="B19" s="0">
-        <v>176.9325</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.2533</v>
-      </c>
-      <c r="B20" s="0">
-        <v>176.2103</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.2038</v>
-      </c>
-      <c r="B21" s="0">
-        <v>175.1268</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.1506</v>
-      </c>
-      <c r="B22" s="0">
-        <v>173.8619</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.1016</v>
-      </c>
-      <c r="B23" s="0">
-        <v>171.868</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B24" s="0">
-        <v>170.9596</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.0817</v>
-      </c>
-      <c r="B25" s="0">
-        <v>170.597</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0702</v>
-      </c>
-      <c r="B26" s="0">
-        <v>169.8708</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0234</v>
-      </c>
-      <c r="B27" s="0">
-        <v>163.5064</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0105</v>
-      </c>
-      <c r="B28" s="0">
-        <v>160.2312</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0063</v>
-      </c>
-      <c r="B29" s="0">
-        <v>156.2262</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0026</v>
-      </c>
-      <c r="B30" s="0">
-        <v>153.1314</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0012</v>
-      </c>
-      <c r="B31" s="0">
-        <v>149.6721</v>
-      </c>
-    </row>
-    <row r="32"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9888</v>
-      </c>
-      <c r="B3" s="0">
-        <v>176.5323</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9511</v>
-      </c>
-      <c r="B4" s="0">
-        <v>174.6442</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.902</v>
-      </c>
-      <c r="B5" s="0">
-        <v>173.5013</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.853</v>
-      </c>
-      <c r="B6" s="0">
-        <v>172.9207</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.8029</v>
-      </c>
-      <c r="B7" s="0">
-        <v>172.3398</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.7515</v>
-      </c>
-      <c r="B8" s="0">
-        <v>171.3834</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.701</v>
-      </c>
-      <c r="B9" s="0">
-        <v>171.1771</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.6543</v>
-      </c>
-      <c r="B10" s="0">
-        <v>170.5974</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.6052</v>
-      </c>
-      <c r="B11" s="0">
-        <v>170.0168</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.5533</v>
-      </c>
-      <c r="B12" s="0">
-        <v>169.4351</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.5047</v>
-      </c>
-      <c r="B13" s="0">
-        <v>168.4798</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.4523</v>
-      </c>
-      <c r="B14" s="0">
-        <v>168.0854</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.4013</v>
-      </c>
-      <c r="B15" s="0">
-        <v>167.3167</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3537</v>
-      </c>
-      <c r="B16" s="0">
-        <v>166.5492</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3351</v>
-      </c>
-      <c r="B17" s="0">
-        <v>166.5422</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3065</v>
-      </c>
-      <c r="B18" s="0">
-        <v>165.7819</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.2841</v>
-      </c>
-      <c r="B19" s="0">
-        <v>165.5861</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.2536</v>
-      </c>
-      <c r="B20" s="0">
-        <v>165.0124</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.2007</v>
-      </c>
-      <c r="B21" s="0">
-        <v>164.0556</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.1526</v>
-      </c>
-      <c r="B22" s="0">
-        <v>162.7257</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.1021</v>
-      </c>
-      <c r="B23" s="0">
-        <v>160.8327</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.0897</v>
-      </c>
-      <c r="B24" s="0">
-        <v>160.2658</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.0802</v>
-      </c>
-      <c r="B25" s="0">
-        <v>159.7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0735</v>
-      </c>
-      <c r="B26" s="0">
-        <v>159.3227</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0611</v>
-      </c>
-      <c r="B27" s="0">
-        <v>158.5685</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0525</v>
-      </c>
-      <c r="B28" s="0">
-        <v>157.8156</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0406</v>
-      </c>
-      <c r="B29" s="0">
-        <v>156.4993</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0311</v>
-      </c>
-      <c r="B30" s="0">
-        <v>155.3713</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0206</v>
-      </c>
-      <c r="B31" s="0">
-        <v>152.5563</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0134</v>
-      </c>
-      <c r="B32" s="0">
-        <v>147.4936</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="B33" s="0">
-        <v>140.7427</v>
-      </c>
-    </row>
-    <row r="34"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9884</v>
-      </c>
-      <c r="B3" s="0">
-        <v>235.9818</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9514</v>
-      </c>
-      <c r="B4" s="0">
-        <v>233.2573</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.8996</v>
-      </c>
-      <c r="B5" s="0">
-        <v>231.0817</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.8524</v>
-      </c>
-      <c r="B6" s="0">
-        <v>229.4516</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.8006</v>
-      </c>
-      <c r="B7" s="0">
-        <v>227.8223</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.7488</v>
-      </c>
-      <c r="B8" s="0">
-        <v>226.5571</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.7012</v>
-      </c>
-      <c r="B9" s="0">
-        <v>225.1091</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.6498</v>
-      </c>
-      <c r="B10" s="0">
-        <v>223.4797</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.6026</v>
-      </c>
-      <c r="B11" s="0">
-        <v>222.3958</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.5513</v>
-      </c>
-      <c r="B12" s="0">
-        <v>220.9485</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.5018</v>
-      </c>
-      <c r="B13" s="0">
-        <v>220.0471</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.4514</v>
-      </c>
-      <c r="B14" s="0">
-        <v>219.51</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B15" s="0">
-        <v>218.0627</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3501</v>
-      </c>
-      <c r="B16" s="0">
-        <v>216.6151</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3376</v>
-      </c>
-      <c r="B17" s="0">
-        <v>216.4353</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3112</v>
-      </c>
-      <c r="B18" s="0">
-        <v>215.5297</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.2872</v>
-      </c>
-      <c r="B19" s="0">
-        <v>215.352</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.2516</v>
-      </c>
-      <c r="B20" s="0">
-        <v>214.4481</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.2048</v>
-      </c>
-      <c r="B21" s="0">
-        <v>212.6358</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.1526</v>
-      </c>
-      <c r="B22" s="0">
-        <v>210.2782</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.1035</v>
-      </c>
-      <c r="B23" s="0">
-        <v>207.0096</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.0934</v>
-      </c>
-      <c r="B24" s="0">
-        <v>205.919</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.0832</v>
-      </c>
-      <c r="B25" s="0">
-        <v>204.6463</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0744</v>
-      </c>
-      <c r="B26" s="0">
-        <v>203.3733</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0665</v>
-      </c>
-      <c r="B27" s="0">
-        <v>202.1001</v>
-      </c>
-    </row>
-    <row r="28"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9903</v>
-      </c>
-      <c r="B3" s="0">
-        <v>246.9064</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9505</v>
-      </c>
-      <c r="B4" s="0">
-        <v>243.4541</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.9001</v>
-      </c>
-      <c r="B5" s="0">
-        <v>240.732</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.8506</v>
-      </c>
-      <c r="B6" s="0">
-        <v>238.374</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.8048</v>
-      </c>
-      <c r="B7" s="0">
-        <v>236.1973</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.7511</v>
-      </c>
-      <c r="B8" s="0">
-        <v>234.2042</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.7007</v>
-      </c>
-      <c r="B9" s="0">
-        <v>232.2104</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.6521</v>
-      </c>
-      <c r="B10" s="0">
-        <v>230.7626</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.6022</v>
-      </c>
-      <c r="B11" s="0">
-        <v>229.133</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.5527</v>
-      </c>
-      <c r="B12" s="0">
-        <v>227.3212</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.4995</v>
-      </c>
-      <c r="B13" s="0">
-        <v>226.2383</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.4537</v>
-      </c>
-      <c r="B14" s="0">
-        <v>225.1542</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3968</v>
-      </c>
-      <c r="B15" s="0">
-        <v>223.89</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3593</v>
-      </c>
-      <c r="B16" s="0">
-        <v>222.258</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.339</v>
-      </c>
-      <c r="B17" s="0">
-        <v>222.4438</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3135</v>
-      </c>
-      <c r="B18" s="0">
-        <v>220.9918</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.3061</v>
-      </c>
-      <c r="B19" s="0">
-        <v>221.1752</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.2645</v>
-      </c>
-      <c r="B20" s="0">
-        <v>219.1799</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.2548</v>
-      </c>
-      <c r="B21" s="0">
-        <v>219.5458</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.2067</v>
-      </c>
-      <c r="B22" s="0">
-        <v>216.8233</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.2007</v>
-      </c>
-      <c r="B23" s="0">
-        <v>217.3707</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.1526</v>
-      </c>
-      <c r="B24" s="0">
-        <v>214.6482</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.1456</v>
-      </c>
-      <c r="B25" s="0">
-        <v>213.3749</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.1031</v>
-      </c>
-      <c r="B26" s="0">
-        <v>210.4693</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0883</v>
-      </c>
-      <c r="B27" s="0">
-        <v>208.4691</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0804</v>
-      </c>
-      <c r="B28" s="0">
-        <v>207.9243</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0702</v>
-      </c>
-      <c r="B29" s="0">
-        <v>206.1053</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0614</v>
-      </c>
-      <c r="B30" s="0">
-        <v>204.6502</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0503</v>
-      </c>
-      <c r="B31" s="0">
-        <v>202.2852</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0415</v>
-      </c>
-      <c r="B32" s="0">
-        <v>200.1018</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0309</v>
-      </c>
-      <c r="B33" s="0">
-        <v>196.8262</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0207</v>
-      </c>
-      <c r="B34" s="0">
-        <v>192.0939</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.0101</v>
-      </c>
-      <c r="B35" s="0">
-        <v>184.6304</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0105</v>
-      </c>
-      <c r="B36" s="0">
-        <v>181.1708</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.0073</v>
-      </c>
-      <c r="B37" s="0">
-        <v>176.8014</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.0054</v>
-      </c>
-      <c r="B38" s="0">
-        <v>172.4317</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.0035</v>
-      </c>
-      <c r="B39" s="0">
-        <v>166.2412</v>
-      </c>
-    </row>
-    <row r="40"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>